--- a/Experimental Data/RQ1.xlsx
+++ b/Experimental Data/RQ1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shenjian/Desktop/科研项目/Mislabel/Data/Experimental Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shenjian/Desktop/Github/RobustLearning/Experimental Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D10B6D1C-0791-7F45-B151-AC2541FD9696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F49BE1B-B741-4B41-AACB-1BCE382919F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="500" windowWidth="27840" windowHeight="16940" xr2:uid="{1C5C343B-F4FB-EF40-AF66-360CA6C51F83}"/>
   </bookViews>
@@ -149,40 +149,41 @@
     <t>Project</t>
   </si>
   <si>
+    <t>False Negative</t>
+  </si>
+  <si>
+    <t>Mislabeling Rate</t>
+  </si>
+  <si>
+    <t>Clean Positive Rate</t>
+  </si>
+  <si>
+    <t>Noisy Positive Rate</t>
+  </si>
+  <si>
+    <t>BRC</t>
+  </si>
+  <si>
+    <t>SDP</t>
+  </si>
+  <si>
+    <t>Defects</t>
+  </si>
+  <si>
+    <t>Non-defects</t>
+  </si>
+  <si>
+    <t>Noisy Defects</t>
+  </si>
+  <si>
+    <t>Noisy Non-defects</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
     <t>False Positive</t>
-  </si>
-  <si>
-    <t>False Negative</t>
-  </si>
-  <si>
-    <t>Mislabeling Rate</t>
-  </si>
-  <si>
-    <t>Clean Positive Rate</t>
-  </si>
-  <si>
-    <t>Noisy Positive Rate</t>
-  </si>
-  <si>
-    <t>BRC</t>
-  </si>
-  <si>
-    <t>SDP</t>
-  </si>
-  <si>
-    <t>Defects</t>
-  </si>
-  <si>
-    <t>Non-defects</t>
-  </si>
-  <si>
-    <t>Noisy Defects</t>
-  </si>
-  <si>
-    <t>Noisy Non-defects</t>
-  </si>
-  <si>
-    <t>Total</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -555,7 +556,7 @@
   <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -579,48 +580,48 @@
         <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="H1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1">
+        <v>0.22922252010723859</v>
+      </c>
+      <c r="D2" s="1">
         <v>9.3833780160857902E-3</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0.22922252010723859</v>
       </c>
       <c r="E2" s="1">
         <v>0.24</v>
@@ -653,10 +654,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="1">
+        <v>0.12572855953372189</v>
+      </c>
+      <c r="D3" s="1">
         <v>1.1240632805995004E-2</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.12572855953372189</v>
       </c>
       <c r="E3" s="1">
         <v>0.14000000000000001</v>
@@ -689,10 +690,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="1">
+        <v>0.1469504707327057</v>
+      </c>
+      <c r="D4" s="1">
         <v>7.777322963569382E-3</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.1469504707327057</v>
       </c>
       <c r="E4" s="1">
         <v>0.15</v>
@@ -721,16 +722,16 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="1">
+        <v>0.12526539278131635</v>
+      </c>
+      <c r="D5" s="1">
         <v>1.326963906581741E-2</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.12526539278131635</v>
       </c>
       <c r="E5" s="1">
         <v>0.14000000000000001</v>
@@ -763,10 +764,10 @@
         <v>4</v>
       </c>
       <c r="C6" s="1">
+        <v>4.5177664974619287E-2</v>
+      </c>
+      <c r="D6" s="1">
         <v>3.7563451776649749E-2</v>
-      </c>
-      <c r="D6" s="1">
-        <v>4.5177664974619287E-2</v>
       </c>
       <c r="E6" s="1">
         <v>0.08</v>
@@ -799,10 +800,10 @@
         <v>5</v>
       </c>
       <c r="C7" s="1">
+        <v>7.2549019607843143E-2</v>
+      </c>
+      <c r="D7" s="1">
         <v>4.0686274509803923E-2</v>
-      </c>
-      <c r="D7" s="1">
-        <v>7.2549019607843143E-2</v>
       </c>
       <c r="E7" s="1">
         <v>0.11</v>
@@ -835,10 +836,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="1">
+        <v>7.139839459231094E-2</v>
+      </c>
+      <c r="D8" s="1">
         <v>2.2391212505280946E-2</v>
-      </c>
-      <c r="D8" s="1">
-        <v>7.139839459231094E-2</v>
       </c>
       <c r="E8" s="1">
         <v>0.09</v>
@@ -871,10 +872,10 @@
         <v>7</v>
       </c>
       <c r="C9" s="1">
+        <v>2.9239766081871343E-2</v>
+      </c>
+      <c r="D9" s="1">
         <v>2.8362573099415204E-2</v>
-      </c>
-      <c r="D9" s="1">
-        <v>2.9239766081871343E-2</v>
       </c>
       <c r="E9" s="1">
         <v>0.06</v>
@@ -907,10 +908,10 @@
         <v>8</v>
       </c>
       <c r="C10" s="1">
+        <v>0.11485148514851486</v>
+      </c>
+      <c r="D10" s="1">
         <v>0.16633663366336635</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0.11485148514851486</v>
       </c>
       <c r="E10" s="1">
         <v>0.28000000000000003</v>
@@ -943,10 +944,10 @@
         <v>9</v>
       </c>
       <c r="C11" s="1">
+        <v>2.1354561536517564E-2</v>
+      </c>
+      <c r="D11" s="1">
         <v>3.1589588071771542E-2</v>
-      </c>
-      <c r="D11" s="1">
-        <v>2.1354561536517564E-2</v>
       </c>
       <c r="E11" s="1">
         <v>0.05</v>
@@ -979,10 +980,10 @@
         <v>10</v>
       </c>
       <c r="C12" s="1">
+        <v>1.1304544426859598E-2</v>
+      </c>
+      <c r="D12" s="1">
         <v>1.2208907981008365E-2</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1.1304544426859598E-2</v>
       </c>
       <c r="E12" s="1">
         <v>0.02</v>
@@ -1015,10 +1016,10 @@
         <v>11</v>
       </c>
       <c r="C13" s="1">
+        <v>2.1910112359550562E-2</v>
+      </c>
+      <c r="D13" s="1">
         <v>2.2050561797752808E-2</v>
-      </c>
-      <c r="D13" s="1">
-        <v>2.1910112359550562E-2</v>
       </c>
       <c r="E13" s="1">
         <v>0.04</v>
@@ -1051,10 +1052,10 @@
         <v>12</v>
       </c>
       <c r="C14" s="1">
+        <v>0.26744778400407537</v>
+      </c>
+      <c r="D14" s="1">
         <v>2.2414671421293938E-2</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0.26744778400407537</v>
       </c>
       <c r="E14" s="1">
         <v>0.28999999999999998</v>
@@ -1087,10 +1088,10 @@
         <v>13</v>
       </c>
       <c r="C15" s="1">
+        <v>0.24932003626473254</v>
+      </c>
+      <c r="D15" s="1">
         <v>1.7225747960108794E-2</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0.24932003626473254</v>
       </c>
       <c r="E15" s="1">
         <v>0.27</v>
@@ -1123,10 +1124,10 @@
         <v>14</v>
       </c>
       <c r="C16" s="1">
+        <v>0.10055452865064694</v>
+      </c>
+      <c r="D16" s="1">
         <v>2.5508317929759706E-2</v>
-      </c>
-      <c r="D16" s="1">
-        <v>0.10055452865064694</v>
       </c>
       <c r="E16" s="1">
         <v>0.13</v>
@@ -1159,10 +1160,10 @@
         <v>15</v>
       </c>
       <c r="C17" s="1">
+        <v>6.6050198150594455E-3</v>
+      </c>
+      <c r="D17" s="1">
         <v>7.7939233817701459E-2</v>
-      </c>
-      <c r="D17" s="1">
-        <v>6.6050198150594455E-3</v>
       </c>
       <c r="E17" s="1">
         <v>0.08</v>
@@ -1195,10 +1196,10 @@
         <v>16</v>
       </c>
       <c r="C18" s="1">
+        <v>3.5322777101096221E-2</v>
+      </c>
+      <c r="D18" s="1">
         <v>9.2570036540803896E-2</v>
-      </c>
-      <c r="D18" s="1">
-        <v>3.5322777101096221E-2</v>
       </c>
       <c r="E18" s="1">
         <v>0.13</v>
@@ -1231,10 +1232,10 @@
         <v>17</v>
       </c>
       <c r="C19" s="1">
+        <v>3.2805429864253395E-2</v>
+      </c>
+      <c r="D19" s="1">
         <v>6.3348416289592757E-2</v>
-      </c>
-      <c r="D19" s="1">
-        <v>3.2805429864253395E-2</v>
       </c>
       <c r="E19" s="1">
         <v>0.1</v>
@@ -1267,10 +1268,10 @@
         <v>18</v>
       </c>
       <c r="C20" s="1">
+        <v>0.17374881964117092</v>
+      </c>
+      <c r="D20" s="1">
         <v>3.3050047214353166E-2</v>
-      </c>
-      <c r="D20" s="1">
-        <v>0.17374881964117092</v>
       </c>
       <c r="E20" s="1">
         <v>0.21</v>
@@ -1303,10 +1304,10 @@
         <v>19</v>
       </c>
       <c r="C21" s="1">
+        <v>0.20431396045536249</v>
+      </c>
+      <c r="D21" s="1">
         <v>2.9358897543439184E-2</v>
-      </c>
-      <c r="D21" s="1">
-        <v>0.20431396045536249</v>
       </c>
       <c r="E21" s="1">
         <v>0.23</v>
@@ -1339,10 +1340,10 @@
         <v>20</v>
       </c>
       <c r="C22" s="1">
+        <v>0.23064340239912759</v>
+      </c>
+      <c r="D22" s="1">
         <v>2.9443838604143947E-2</v>
-      </c>
-      <c r="D22" s="1">
-        <v>0.23064340239912759</v>
       </c>
       <c r="E22" s="1">
         <v>0.26</v>
@@ -1375,10 +1376,10 @@
         <v>21</v>
       </c>
       <c r="C23" s="1">
+        <v>0.10256410256410256</v>
+      </c>
+      <c r="D23" s="1">
         <v>2.3076923076923078E-2</v>
-      </c>
-      <c r="D23" s="1">
-        <v>0.10256410256410256</v>
       </c>
       <c r="E23" s="1">
         <v>0.13</v>
@@ -1411,10 +1412,10 @@
         <v>22</v>
       </c>
       <c r="C24" s="1">
+        <v>7.4755822689706986E-2</v>
+      </c>
+      <c r="D24" s="1">
         <v>1.2021036814425245E-2</v>
-      </c>
-      <c r="D24" s="1">
-        <v>7.4755822689706986E-2</v>
       </c>
       <c r="E24" s="1">
         <v>0.09</v>
@@ -1447,10 +1448,10 @@
         <v>23</v>
       </c>
       <c r="C25" s="1">
+        <v>0.17090395480225989</v>
+      </c>
+      <c r="D25" s="1">
         <v>8.4745762711864406E-3</v>
-      </c>
-      <c r="D25" s="1">
-        <v>0.17090395480225989</v>
       </c>
       <c r="E25" s="1">
         <v>0.18</v>
@@ -1483,10 +1484,10 @@
         <v>24</v>
       </c>
       <c r="C26" s="1">
+        <v>3.6935704514363885E-2</v>
+      </c>
+      <c r="D26" s="1">
         <v>0.13816689466484269</v>
-      </c>
-      <c r="D26" s="1">
-        <v>3.6935704514363885E-2</v>
       </c>
       <c r="E26" s="1">
         <v>0.18</v>
@@ -1519,10 +1520,10 @@
         <v>25</v>
       </c>
       <c r="C27" s="1">
+        <v>8.4867075664621677E-2</v>
+      </c>
+      <c r="D27" s="1">
         <v>0.10531697341513292</v>
-      </c>
-      <c r="D27" s="1">
-        <v>8.4867075664621677E-2</v>
       </c>
       <c r="E27" s="1">
         <v>0.19</v>
@@ -1555,10 +1556,10 @@
         <v>26</v>
       </c>
       <c r="C28" s="1">
+        <v>2.2988505747126436E-2</v>
+      </c>
+      <c r="D28" s="1">
         <v>0.19451812555260831</v>
-      </c>
-      <c r="D28" s="1">
-        <v>2.2988505747126436E-2</v>
       </c>
       <c r="E28" s="1">
         <v>0.22</v>
@@ -1591,10 +1592,10 @@
         <v>27</v>
       </c>
       <c r="C29" s="1">
+        <v>2.6022304832713755E-2</v>
+      </c>
+      <c r="D29" s="1">
         <v>7.3110285006195791E-2</v>
-      </c>
-      <c r="D29" s="1">
-        <v>2.6022304832713755E-2</v>
       </c>
       <c r="E29" s="1">
         <v>0.1</v>
@@ -1627,10 +1628,10 @@
         <v>28</v>
       </c>
       <c r="C30" s="1">
+        <v>0.12422360248447205</v>
+      </c>
+      <c r="D30" s="1">
         <v>7.9503105590062115E-2</v>
-      </c>
-      <c r="D30" s="1">
-        <v>0.12422360248447205</v>
       </c>
       <c r="E30" s="1">
         <v>0.2</v>
@@ -1663,10 +1664,10 @@
         <v>29</v>
       </c>
       <c r="C31" s="1">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="D31" s="1">
         <v>0.11476608187134503</v>
-      </c>
-      <c r="D31" s="1">
-        <v>0.1111111111111111</v>
       </c>
       <c r="E31" s="1">
         <v>0.23</v>
@@ -1699,10 +1700,10 @@
         <v>30</v>
       </c>
       <c r="C32" s="1">
+        <v>7.9281974569932689E-2</v>
+      </c>
+      <c r="D32" s="1">
         <v>0.10545998504113688</v>
-      </c>
-      <c r="D32" s="1">
-        <v>7.9281974569932689E-2</v>
       </c>
       <c r="E32" s="1">
         <v>0.18</v>
@@ -1735,10 +1736,10 @@
         <v>31</v>
       </c>
       <c r="C33" s="1">
+        <v>1.9957234497505347E-2</v>
+      </c>
+      <c r="D33" s="1">
         <v>9.9786172487526734E-2</v>
-      </c>
-      <c r="D33" s="1">
-        <v>1.9957234497505347E-2</v>
       </c>
       <c r="E33" s="1">
         <v>0.12</v>
@@ -1771,10 +1772,10 @@
         <v>32</v>
       </c>
       <c r="C34" s="1">
+        <v>4.254112308564946E-2</v>
+      </c>
+      <c r="D34" s="1">
         <v>0.14180374361883152</v>
-      </c>
-      <c r="D34" s="1">
-        <v>4.254112308564946E-2</v>
       </c>
       <c r="E34" s="1">
         <v>0.18</v>
@@ -1807,10 +1808,10 @@
         <v>33</v>
       </c>
       <c r="C35" s="1">
+        <v>2.6315789473684209E-2</v>
+      </c>
+      <c r="D35" s="1">
         <v>0.13815789473684212</v>
-      </c>
-      <c r="D35" s="1">
-        <v>2.6315789473684209E-2</v>
       </c>
       <c r="E35" s="1">
         <v>0.16</v>
@@ -1843,10 +1844,10 @@
         <v>34</v>
       </c>
       <c r="C36" s="1">
+        <v>3.4522885958107062E-2</v>
+      </c>
+      <c r="D36" s="1">
         <v>2.986811481768813E-2</v>
-      </c>
-      <c r="D36" s="1">
-        <v>3.4522885958107062E-2</v>
       </c>
       <c r="E36" s="1">
         <v>0.06</v>

--- a/Experimental Data/RQ1.xlsx
+++ b/Experimental Data/RQ1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shenjian/Desktop/Github/RobustLearning/Experimental Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F49BE1B-B741-4B41-AACB-1BCE382919F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBCC2682-17EB-C941-8305-B82FEB39E791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="500" windowWidth="27840" windowHeight="16940" xr2:uid="{1C5C343B-F4FB-EF40-AF66-360CA6C51F83}"/>
   </bookViews>
@@ -190,7 +190,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -203,6 +203,14 @@
       <sz val="9"/>
       <name val="等线"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -229,7 +237,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -237,6 +245,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -556,7 +567,7 @@
   <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -728,10 +739,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="1">
-        <v>0.12526539278131635</v>
-      </c>
-      <c r="D5" s="1">
         <v>1.326963906581741E-2</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.125265393</v>
       </c>
       <c r="E5" s="1">
         <v>0.14000000000000001</v>
@@ -764,10 +775,10 @@
         <v>4</v>
       </c>
       <c r="C6" s="1">
-        <v>4.5177664974619287E-2</v>
-      </c>
-      <c r="D6" s="1">
         <v>3.7563451776649749E-2</v>
+      </c>
+      <c r="D6" s="3">
+        <v>4.5177664999999999E-2</v>
       </c>
       <c r="E6" s="1">
         <v>0.08</v>
@@ -800,10 +811,10 @@
         <v>5</v>
       </c>
       <c r="C7" s="1">
-        <v>7.2549019607843143E-2</v>
-      </c>
-      <c r="D7" s="1">
         <v>4.0686274509803923E-2</v>
+      </c>
+      <c r="D7" s="3">
+        <v>7.2549020000000006E-2</v>
       </c>
       <c r="E7" s="1">
         <v>0.11</v>
@@ -836,10 +847,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="1">
-        <v>7.139839459231094E-2</v>
-      </c>
-      <c r="D8" s="1">
         <v>2.2391212505280946E-2</v>
+      </c>
+      <c r="D8" s="3">
+        <v>7.1398395000000003E-2</v>
       </c>
       <c r="E8" s="1">
         <v>0.09</v>
@@ -872,10 +883,10 @@
         <v>7</v>
       </c>
       <c r="C9" s="1">
-        <v>2.9239766081871343E-2</v>
-      </c>
-      <c r="D9" s="1">
         <v>2.8362573099415204E-2</v>
+      </c>
+      <c r="D9" s="3">
+        <v>2.9239766E-2</v>
       </c>
       <c r="E9" s="1">
         <v>0.06</v>
@@ -908,10 +919,10 @@
         <v>8</v>
       </c>
       <c r="C10" s="1">
-        <v>0.11485148514851486</v>
-      </c>
-      <c r="D10" s="1">
         <v>0.16633663366336635</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.114851485</v>
       </c>
       <c r="E10" s="1">
         <v>0.28000000000000003</v>
@@ -944,10 +955,10 @@
         <v>9</v>
       </c>
       <c r="C11" s="1">
-        <v>2.1354561536517564E-2</v>
-      </c>
-      <c r="D11" s="1">
         <v>3.1589588071771542E-2</v>
+      </c>
+      <c r="D11" s="3">
+        <v>2.1354562000000001E-2</v>
       </c>
       <c r="E11" s="1">
         <v>0.05</v>
@@ -980,10 +991,10 @@
         <v>10</v>
       </c>
       <c r="C12" s="1">
-        <v>1.1304544426859598E-2</v>
-      </c>
-      <c r="D12" s="1">
         <v>1.2208907981008365E-2</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1.1304544E-2</v>
       </c>
       <c r="E12" s="1">
         <v>0.02</v>
@@ -1016,10 +1027,10 @@
         <v>11</v>
       </c>
       <c r="C13" s="1">
-        <v>2.1910112359550562E-2</v>
-      </c>
-      <c r="D13" s="1">
         <v>2.2050561797752808E-2</v>
+      </c>
+      <c r="D13" s="3">
+        <v>2.1910111999999999E-2</v>
       </c>
       <c r="E13" s="1">
         <v>0.04</v>
@@ -1052,10 +1063,10 @@
         <v>12</v>
       </c>
       <c r="C14" s="1">
-        <v>0.26744778400407537</v>
-      </c>
-      <c r="D14" s="1">
         <v>2.2414671421293938E-2</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.26744778400000002</v>
       </c>
       <c r="E14" s="1">
         <v>0.28999999999999998</v>
@@ -1088,10 +1099,10 @@
         <v>13</v>
       </c>
       <c r="C15" s="1">
-        <v>0.24932003626473254</v>
-      </c>
-      <c r="D15" s="1">
         <v>1.7225747960108794E-2</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0.24932003599999999</v>
       </c>
       <c r="E15" s="1">
         <v>0.27</v>
@@ -1124,10 +1135,10 @@
         <v>14</v>
       </c>
       <c r="C16" s="1">
-        <v>0.10055452865064694</v>
-      </c>
-      <c r="D16" s="1">
         <v>2.5508317929759706E-2</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0.100554529</v>
       </c>
       <c r="E16" s="1">
         <v>0.13</v>
@@ -1160,10 +1171,10 @@
         <v>15</v>
       </c>
       <c r="C17" s="1">
-        <v>6.6050198150594455E-3</v>
-      </c>
-      <c r="D17" s="1">
         <v>7.7939233817701459E-2</v>
+      </c>
+      <c r="D17" s="3">
+        <v>6.6050199999999996E-3</v>
       </c>
       <c r="E17" s="1">
         <v>0.08</v>
@@ -1196,10 +1207,10 @@
         <v>16</v>
       </c>
       <c r="C18" s="1">
-        <v>3.5322777101096221E-2</v>
-      </c>
-      <c r="D18" s="1">
         <v>9.2570036540803896E-2</v>
+      </c>
+      <c r="D18" s="3">
+        <v>3.5322777E-2</v>
       </c>
       <c r="E18" s="1">
         <v>0.13</v>
@@ -1232,10 +1243,10 @@
         <v>17</v>
       </c>
       <c r="C19" s="1">
-        <v>3.2805429864253395E-2</v>
-      </c>
-      <c r="D19" s="1">
         <v>6.3348416289592757E-2</v>
+      </c>
+      <c r="D19" s="3">
+        <v>3.2805429999999997E-2</v>
       </c>
       <c r="E19" s="1">
         <v>0.1</v>
@@ -1268,10 +1279,10 @@
         <v>18</v>
       </c>
       <c r="C20" s="1">
-        <v>0.17374881964117092</v>
-      </c>
-      <c r="D20" s="1">
         <v>3.3050047214353166E-2</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0.17374882</v>
       </c>
       <c r="E20" s="1">
         <v>0.21</v>
@@ -1304,10 +1315,10 @@
         <v>19</v>
       </c>
       <c r="C21" s="1">
-        <v>0.20431396045536249</v>
-      </c>
-      <c r="D21" s="1">
         <v>2.9358897543439184E-2</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0.20431395999999999</v>
       </c>
       <c r="E21" s="1">
         <v>0.23</v>
@@ -1340,10 +1351,10 @@
         <v>20</v>
       </c>
       <c r="C22" s="1">
-        <v>0.23064340239912759</v>
-      </c>
-      <c r="D22" s="1">
         <v>2.9443838604143947E-2</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0.230643402</v>
       </c>
       <c r="E22" s="1">
         <v>0.26</v>
@@ -1376,10 +1387,10 @@
         <v>21</v>
       </c>
       <c r="C23" s="1">
-        <v>0.10256410256410256</v>
-      </c>
-      <c r="D23" s="1">
         <v>2.3076923076923078E-2</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0.102564103</v>
       </c>
       <c r="E23" s="1">
         <v>0.13</v>
@@ -1412,10 +1423,10 @@
         <v>22</v>
       </c>
       <c r="C24" s="1">
-        <v>7.4755822689706986E-2</v>
-      </c>
-      <c r="D24" s="1">
         <v>1.2021036814425245E-2</v>
+      </c>
+      <c r="D24" s="3">
+        <v>7.4755822999999999E-2</v>
       </c>
       <c r="E24" s="1">
         <v>0.09</v>
@@ -1448,10 +1459,10 @@
         <v>23</v>
       </c>
       <c r="C25" s="1">
-        <v>0.17090395480225989</v>
-      </c>
-      <c r="D25" s="1">
         <v>8.4745762711864406E-3</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0.170903955</v>
       </c>
       <c r="E25" s="1">
         <v>0.18</v>
@@ -1484,10 +1495,10 @@
         <v>24</v>
       </c>
       <c r="C26" s="1">
-        <v>3.6935704514363885E-2</v>
-      </c>
-      <c r="D26" s="1">
         <v>0.13816689466484269</v>
+      </c>
+      <c r="D26" s="3">
+        <v>3.6935704999999999E-2</v>
       </c>
       <c r="E26" s="1">
         <v>0.18</v>
@@ -1520,10 +1531,10 @@
         <v>25</v>
       </c>
       <c r="C27" s="1">
-        <v>8.4867075664621677E-2</v>
-      </c>
-      <c r="D27" s="1">
         <v>0.10531697341513292</v>
+      </c>
+      <c r="D27" s="3">
+        <v>8.4867076E-2</v>
       </c>
       <c r="E27" s="1">
         <v>0.19</v>
@@ -1556,10 +1567,10 @@
         <v>26</v>
       </c>
       <c r="C28" s="1">
-        <v>2.2988505747126436E-2</v>
-      </c>
-      <c r="D28" s="1">
         <v>0.19451812555260831</v>
+      </c>
+      <c r="D28" s="3">
+        <v>2.2988505999999999E-2</v>
       </c>
       <c r="E28" s="1">
         <v>0.22</v>
@@ -1592,10 +1603,10 @@
         <v>27</v>
       </c>
       <c r="C29" s="1">
-        <v>2.6022304832713755E-2</v>
-      </c>
-      <c r="D29" s="1">
         <v>7.3110285006195791E-2</v>
+      </c>
+      <c r="D29" s="3">
+        <v>2.6022304999999999E-2</v>
       </c>
       <c r="E29" s="1">
         <v>0.1</v>
@@ -1628,10 +1639,10 @@
         <v>28</v>
       </c>
       <c r="C30" s="1">
-        <v>0.12422360248447205</v>
-      </c>
-      <c r="D30" s="1">
         <v>7.9503105590062115E-2</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0.124223602</v>
       </c>
       <c r="E30" s="1">
         <v>0.2</v>
@@ -1664,10 +1675,10 @@
         <v>29</v>
       </c>
       <c r="C31" s="1">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="D31" s="1">
         <v>0.11476608187134503</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0.111111111</v>
       </c>
       <c r="E31" s="1">
         <v>0.23</v>
@@ -1700,10 +1711,10 @@
         <v>30</v>
       </c>
       <c r="C32" s="1">
-        <v>7.9281974569932689E-2</v>
-      </c>
-      <c r="D32" s="1">
         <v>0.10545998504113688</v>
+      </c>
+      <c r="D32" s="3">
+        <v>7.9281975000000005E-2</v>
       </c>
       <c r="E32" s="1">
         <v>0.18</v>
@@ -1736,10 +1747,10 @@
         <v>31</v>
       </c>
       <c r="C33" s="1">
-        <v>1.9957234497505347E-2</v>
-      </c>
-      <c r="D33" s="1">
         <v>9.9786172487526734E-2</v>
+      </c>
+      <c r="D33" s="3">
+        <v>1.9957234000000001E-2</v>
       </c>
       <c r="E33" s="1">
         <v>0.12</v>
@@ -1772,10 +1783,10 @@
         <v>32</v>
       </c>
       <c r="C34" s="1">
-        <v>4.254112308564946E-2</v>
-      </c>
-      <c r="D34" s="1">
         <v>0.14180374361883152</v>
+      </c>
+      <c r="D34" s="3">
+        <v>4.2541123E-2</v>
       </c>
       <c r="E34" s="1">
         <v>0.18</v>
@@ -1808,10 +1819,10 @@
         <v>33</v>
       </c>
       <c r="C35" s="1">
-        <v>2.6315789473684209E-2</v>
-      </c>
-      <c r="D35" s="1">
         <v>0.13815789473684212</v>
+      </c>
+      <c r="D35" s="3">
+        <v>2.6315788999999999E-2</v>
       </c>
       <c r="E35" s="1">
         <v>0.16</v>
@@ -1844,10 +1855,10 @@
         <v>34</v>
       </c>
       <c r="C36" s="1">
-        <v>3.4522885958107062E-2</v>
-      </c>
-      <c r="D36" s="1">
         <v>2.986811481768813E-2</v>
+      </c>
+      <c r="D36" s="3">
+        <v>3.4522886000000003E-2</v>
       </c>
       <c r="E36" s="1">
         <v>0.06</v>
@@ -1881,5 +1892,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>